--- a/Input parameters/HD Hydro - head heights.xlsx
+++ b/Input parameters/HD Hydro - head heights.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rheenergiseltd.sharepoint.com/sites/commercial/Shared Documents/Cost Models/LCOS/Input parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnabywinser/Documents/GitHub/costs/Input parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{74B80F65-3B08-5748-B35B-1C59BC25BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DAD6580-5696-3F40-A0BC-B0D4B03ECE39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BD141-BA65-754E-A407-430E6FB9A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-19900" windowWidth="29400" windowHeight="17400" xr2:uid="{8B291D87-24BD-3A42-A508-1D5DC6DAA564}"/>
+    <workbookView xWindow="100" yWindow="1100" windowWidth="29400" windowHeight="17400" xr2:uid="{8B291D87-24BD-3A42-A508-1D5DC6DAA564}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,66 +39,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>Power CAPEX</t>
-  </si>
-  <si>
-    <t>Energy CAPEX</t>
-  </si>
-  <si>
-    <t>Power OPEX</t>
-  </si>
-  <si>
-    <t>Energy OPEX</t>
-  </si>
-  <si>
-    <t>Replacement Power</t>
-  </si>
-  <si>
-    <t>Replacement Energy</t>
-  </si>
-  <si>
-    <t>Replacement interval</t>
-  </si>
-  <si>
-    <t>Power EoL cost</t>
-  </si>
-  <si>
-    <t>WACC</t>
-  </si>
-  <si>
-    <t>Round-trip efficiency</t>
-  </si>
-  <si>
-    <t>Self-discharge</t>
-  </si>
-  <si>
-    <t>Lifetime 100% DoD</t>
-  </si>
-  <si>
-    <t>DoD</t>
-  </si>
-  <si>
-    <t>Temporal degradation</t>
-  </si>
-  <si>
-    <t>EoL threshold</t>
-  </si>
-  <si>
-    <t>Response time</t>
-  </si>
-  <si>
-    <t>Pre-dev + construction</t>
-  </si>
-  <si>
-    <t>Economic Life</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Energy EoL cost</t>
-  </si>
-  <si>
     <t>HD Hydro (250m)</t>
   </si>
   <si>
@@ -105,6 +49,63 @@
   </si>
   <si>
     <t>HD Hydro (150m)</t>
+  </si>
+  <si>
+    <t>Power OPEX ($/kWcap)</t>
+  </si>
+  <si>
+    <t>Power CAPEX ($/kWcap)</t>
+  </si>
+  <si>
+    <t>Energy CAPEX ($/kWhcap)</t>
+  </si>
+  <si>
+    <t>Energy OPEX ($/MWh discharged)</t>
+  </si>
+  <si>
+    <t>Replacement Power ($/kWcap)</t>
+  </si>
+  <si>
+    <t>Replacement Energy ($/kWhcap)</t>
+  </si>
+  <si>
+    <t>Replacement interval (cycles)</t>
+  </si>
+  <si>
+    <t>Power EoL cost ($/kWcap)</t>
+  </si>
+  <si>
+    <t>Energy EoL cost ($/kWhcap)</t>
+  </si>
+  <si>
+    <t>Discount rate (%)</t>
+  </si>
+  <si>
+    <t>Round-trip efficiency (%)</t>
+  </si>
+  <si>
+    <t>Self-discharge (% of energy capacity)</t>
+  </si>
+  <si>
+    <t>Lifetime at 100% DoD (cycles)</t>
+  </si>
+  <si>
+    <t>Depth of Discharge (%)</t>
+  </si>
+  <si>
+    <t>Temporal degradation (% per annum)</t>
+  </si>
+  <si>
+    <t>EoL threshold (% of capacity)</t>
+  </si>
+  <si>
+    <t>Response time (secs)</t>
+  </si>
+  <si>
+    <t>Pre-dev + construction (years)</t>
+  </si>
+  <si>
+    <t>Economic Life (years)</t>
   </si>
 </sst>
 </file>
@@ -167,6 +168,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEAC9F2-BC2D-1E2E-FE7E-5A2E3E019A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="114300"/>
+          <a:ext cx="5892800" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:t>Data from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" kern="1200" baseline="0"/>
+            <a:t> HD Hydro comes from the Cost-Revenue model (using UK Construction rates, and a power capacity of 20 MW).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" kern="1200" baseline="0"/>
+            <a:t>For the specific energy cost, 10 hrs is used.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,7 +579,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,30 +589,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>1285</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="1">
-        <v>1325</v>
+        <v>1037</v>
       </c>
       <c r="D2" s="1">
-        <v>1362</v>
+        <v>1069</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -536,16 +626,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -559,7 +649,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -582,7 +672,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0.4</v>
@@ -605,7 +695,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>120</v>
@@ -628,7 +718,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>8</v>
@@ -651,7 +741,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>7300</v>
@@ -674,7 +764,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -697,7 +787,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -720,7 +810,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -743,7 +833,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>80</v>
@@ -766,7 +856,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -789,7 +879,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>30000</v>
@@ -812,7 +902,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>100</v>
@@ -835,7 +925,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -858,7 +948,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>95</v>
@@ -881,7 +971,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
@@ -904,7 +994,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -927,7 +1017,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -951,4 +1041,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3E89B-1C23-DD4C-BFA2-E212AD1F820F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>